--- a/Requistos02.xlsx
+++ b/Requistos02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\20192\pesquisa_inovacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\pesquisa_inovacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="86">
   <si>
     <t>Tipo</t>
   </si>
@@ -298,7 +298,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +356,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF3300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEF7BD6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2BEBF5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE09B40"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -437,9 +485,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -463,33 +508,99 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,7 +609,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE09B40"/>
+      <color rgb="FF2BEBF5"/>
+      <color rgb="FF000000"/>
       <color rgb="FFFF3300"/>
+      <color rgb="FFEF7BD6"/>
     </mruColors>
   </colors>
   <extLst>
@@ -815,19 +930,19 @@
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="14">
-        <v>43710</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="13">
+        <v>43710</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -835,19 +950,19 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="14">
-        <v>43710</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="13">
+        <v>43710</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -855,19 +970,19 @@
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="14">
-        <v>43710</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="13">
+        <v>43710</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -875,19 +990,19 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="14">
-        <v>43710</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="13">
+        <v>43710</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -895,19 +1010,19 @@
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="14">
-        <v>43710</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="13">
+        <v>43710</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -915,19 +1030,19 @@
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="14">
-        <v>43710</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="13">
+        <v>43710</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -935,19 +1050,19 @@
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="14">
-        <v>43710</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="13">
+        <v>43710</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -955,19 +1070,19 @@
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="14">
-        <v>43710</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="13">
+        <v>43710</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -975,19 +1090,19 @@
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="14">
-        <v>43710</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="13">
+        <v>43710</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -995,19 +1110,19 @@
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="14">
-        <v>43710</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="13">
+        <v>43710</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1015,19 +1130,19 @@
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="14">
-        <v>43710</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="13">
+        <v>43710</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1035,19 +1150,19 @@
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="14">
-        <v>43710</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="13">
+        <v>43710</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1055,19 +1170,19 @@
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="14">
-        <v>43710</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="13">
+        <v>43710</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1075,19 +1190,19 @@
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="14">
-        <v>43710</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="13">
+        <v>43710</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1095,19 +1210,19 @@
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="14">
-        <v>43710</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="13">
+        <v>43710</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1115,19 +1230,19 @@
       <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="14">
-        <v>43710</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="13">
+        <v>43710</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1135,19 +1250,19 @@
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="14">
-        <v>43710</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="13">
+        <v>43710</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1155,19 +1270,19 @@
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="14">
-        <v>43710</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="13">
+        <v>43710</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1175,19 +1290,19 @@
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="14">
-        <v>43710</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="13">
+        <v>43710</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1195,19 +1310,19 @@
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="14">
-        <v>43710</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="E22" s="13">
+        <v>43710</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1215,19 +1330,19 @@
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="14">
-        <v>43710</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="13">
+        <v>43710</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1243,7 +1358,7 @@
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1333,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F30"/>
+  <dimension ref="A2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,285 +1463,303 @@
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="38" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="19">
-        <v>43710</v>
-      </c>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="26">
+        <v>43710</v>
+      </c>
+      <c r="F4" s="30" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
-      <c r="C5" s="22" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="34"/>
+      <c r="C5" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="24"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="34"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="34"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="34"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="34"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="34"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="35"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="32"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="19">
-        <v>43710</v>
-      </c>
-      <c r="F13" s="16" t="s">
+      <c r="E13" s="26">
+        <v>43710</v>
+      </c>
+      <c r="F13" s="30" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
-      <c r="C14" s="22" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="17"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="17"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="17"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="24"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="31"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="31"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="31"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="32"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="19">
-        <v>43710</v>
-      </c>
-      <c r="F21" s="16" t="s">
+      <c r="E21" s="26">
+        <v>43710</v>
+      </c>
+      <c r="F21" s="30" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="17"/>
-      <c r="C22" s="16" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="19"/>
+      <c r="C22" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="24"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="31"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="20"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="32"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="1"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="6">
-        <v>43710</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="E25" s="29">
+        <v>43710</v>
+      </c>
+      <c r="F25" s="21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="18"/>
-      <c r="C26" s="5" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="37"/>
+      <c r="C26" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="6">
-        <v>43710</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="E26" s="29">
+        <v>43710</v>
+      </c>
+      <c r="F26" s="21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="6">
-        <v>43710</v>
-      </c>
-      <c r="F28" s="4" t="s">
+      <c r="E28" s="29">
+        <v>43710</v>
+      </c>
+      <c r="F28" s="21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="1"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="6">
-        <v>43710</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="E30" s="29">
+        <v>43710</v>
+      </c>
+      <c r="F30" s="21" t="s">
         <v>82</v>
       </c>
     </row>
